--- a/views/uploadTemplate/hauthOrgExportTemplate.xlsx
+++ b/views/uploadTemplate/hauthOrgExportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hzwy23\Desktop\gowork\src\github.com\hzwy23\asofdate\upload\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hzwy23\Desktop\gowork\src\github.com\hzwy23\asofdate\views\uploadTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>所属域</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>上级编码</t>
-  </si>
-  <si>
-    <t>机构状态</t>
   </si>
   <si>
     <t>创建日期</t>
@@ -491,27 +488,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.59765625" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="27.06640625" customWidth="1"/>
+    <col min="3" max="3" width="19.46484375" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.9296875" customWidth="1"/>
-    <col min="8" max="8" width="11.9296875" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.9296875" customWidth="1"/>
+    <col min="7" max="7" width="11.9296875" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -536,9 +532,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -570,9 +564,8 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -581,16 +574,12 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
       <formula1>"节点,叶子"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
-      <formula1>"成本中心,利润中心"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
